--- a/src/main/resources/Products.xlsx
+++ b/src/main/resources/Products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RAM\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4523C703-4899-4E39-B7CA-A18D514760B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{672D0004-94D8-429B-90CD-B43FAE0B5D05}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16410" windowHeight="7425" xr2:uid="{0871692B-978F-4872-ADC7-E361036B1D79}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>ProductName</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>Motorola Tab (11inch, 4GB, 64GB, WiFi+LTE Calling), Modernist Teal with Mediatek Helio G90T Processor, Quadcore Speakers with Dolby Atmos, Face Unlock and Google Assistant</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy Tab A8 26.69 cm (10.5 inch) Display, RAM 4 GB, ROM 64 GB Expandable, Wi-Fi Tablet, Silver, (SM-X200NZSEINU)</t>
   </si>
 </sst>
 </file>
@@ -98,7 +95,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,12 +413,12 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.5703125" customWidth="1"/>
+    <col min="1" max="1" width="50.140625" customWidth="1"/>
     <col min="2" max="2" width="23.140625" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="18.85546875" customWidth="1"/>
@@ -450,13 +447,13 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="E2">
         <v>3000</v>
@@ -497,9 +494,6 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
       <c r="B5">
         <v>1</v>
       </c>

--- a/src/main/resources/Products.xlsx
+++ b/src/main/resources/Products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RAM\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{672D0004-94D8-429B-90CD-B43FAE0B5D05}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E03323C-BBBF-4B24-A44A-F4D85EF8ECBA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16410" windowHeight="7425" xr2:uid="{0871692B-978F-4872-ADC7-E361036B1D79}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>ProductName</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>Motorola Tab (11inch, 4GB, 64GB, WiFi+LTE Calling), Modernist Teal with Mediatek Helio G90T Processor, Quadcore Speakers with Dolby Atmos, Face Unlock and Google Assistant</t>
+  </si>
+  <si>
+    <t>xyz</t>
   </si>
 </sst>
 </file>
@@ -410,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{791D1CCA-C33D-4183-BE2D-99DC1AF5F8D6}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,10 +504,27 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>16</v>
+        <v>-16</v>
       </c>
       <c r="E5" s="3">
         <v>56809</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>70</v>
+      </c>
+      <c r="E6">
+        <v>3456</v>
       </c>
     </row>
   </sheetData>
